--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.111</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.797</v>
+        <v>17.938</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.022</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.408</v>
+        <v>18.239</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.019</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.304</v>
+        <v>13.641</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.23691451434708</v>
+        <v>-5.640068159746825</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.23691454982611</v>
+        <v>11.52320666282908</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.23691456179709</v>
+        <v>17.50482318006953</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.23691451340199</v>
+        <v>-9.132102224546394</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.2369145535788</v>
+        <v>4.406498898113114</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.23691456713486</v>
+        <v>9.703598985887224</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.2369145221508</v>
+        <v>-0.8253720647305443</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.23691455795986</v>
+        <v>12.21264075953856</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.2369145700422</v>
+        <v>17.70995405750758</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.23691457023251</v>
+        <v>13.32427751666589</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.23691458865857</v>
+        <v>20.04119100621817</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.23691459417044</v>
+        <v>23.97162128772801</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.23691454296114</v>
+        <v>-3.729195134181211</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.23691458627519</v>
+        <v>9.6426145062188</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.23691460047012</v>
+        <v>17.34579270713144</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.23691457394235</v>
+        <v>-5.634252614333995</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.23691461361652</v>
+        <v>15.36094547550647</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.23691462736992</v>
+        <v>23.44019952194277</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.23691457274018</v>
+        <v>-12.73755981854394</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.23691461766761</v>
+        <v>3.351824011407896</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.2369146332421</v>
+        <v>10.89827821317945</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.23691458585763</v>
+        <v>-3.421441457586415</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.23691462590086</v>
+        <v>13.48534072944423</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.23691453499863</v>
+        <v>0.6403124904234652</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.23691457209328</v>
+        <v>20.89545934981219</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.23691458400743</v>
+        <v>26.44198219059322</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.23691453619737</v>
+        <v>0.6796438130980249</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.23691457820373</v>
+        <v>17.52450982707511</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.23691459169543</v>
+        <v>22.32923173114818</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.2369145458159</v>
+        <v>10.31792671202077</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.23691458325562</v>
+        <v>26.2100563511325</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.2369145952806</v>
+        <v>31.24917413762948</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.23691459535068</v>
+        <v>29.67673537439504</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.23691461422715</v>
+        <v>36.86583260706468</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.23691461974682</v>
+        <v>40.59956045518415</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.236914566304</v>
+        <v>9.530174427277966</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.23691461157145</v>
+        <v>26.50856374920112</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.23691462562626</v>
+        <v>33.66927583253307</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.23691459890635</v>
+        <v>3.071044846582023</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.23691464039139</v>
+        <v>27.52004090171981</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.23691465411256</v>
+        <v>35.28661596751174</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.23691460009536</v>
+        <v>0.1284912074204598</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.23691464707344</v>
+        <v>19.87025714480115</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.23691466261144</v>
+        <v>27.06691159184791</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.23691465614454</v>
+        <v>31.27474101445558</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.23691454049308</v>
+        <v>-0.4458258407336295</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.23691457747388</v>
+        <v>20.37597614273723</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.23691458927481</v>
+        <v>26.13165640469796</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.2369145423058</v>
+        <v>0.7399240464765526</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.23691458418323</v>
+        <v>18.22360747464327</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.23691459754673</v>
+        <v>23.25648950726471</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.23691455195002</v>
+        <v>10.39245418979627</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.23691458927483</v>
+        <v>26.83512138557776</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.23691460118554</v>
+        <v>32.07497960077737</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.23691460113645</v>
+        <v>30.75749537064241</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.23691461987132</v>
+        <v>37.96099023941378</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.23691462534682</v>
+        <v>41.90246223868964</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.23691457204248</v>
+        <v>9.955152310890799</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.23691461719264</v>
+        <v>27.77526832665425</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.23691463109277</v>
+        <v>35.12571475421363</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.23691460443101</v>
+        <v>2.284680839090029</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.23691464578132</v>
+        <v>27.33402747235411</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.23691465938347</v>
+        <v>35.38287844958852</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.23691460627427</v>
+        <v>0.5547557711159214</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.23691465309978</v>
+        <v>20.97560570376754</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.236914668503</v>
+        <v>28.48082966975125</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.23691462046058</v>
+        <v>11.68087282644473</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.23691466219555</v>
+        <v>32.37081304866361</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.23691452445328</v>
+        <v>-3.003598690863623</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.23691456077227</v>
+        <v>16.20614369891207</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.23691457287326</v>
+        <v>22.94228464135146</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.23691452504638</v>
+        <v>-2.885585644027437</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.23691456617437</v>
+        <v>12.85346735055867</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.23691457987766</v>
+        <v>18.96876510331238</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.23691453414571</v>
+        <v>5.471732055801343</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.23691457080255</v>
+        <v>20.43038815670111</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.23691458301612</v>
+        <v>26.64371431132266</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.23691458286953</v>
+        <v>22.3461032314387</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.23691460154467</v>
+        <v>29.32691288288155</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.23691460713426</v>
+        <v>33.96301684995377</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.23691455464087</v>
+        <v>3.234919693145791</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.23691459904429</v>
+        <v>19.35816729702967</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.23691461334107</v>
+        <v>27.80997719875727</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.23691458601843</v>
+        <v>-1.687184394190371</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.23691462661609</v>
+        <v>21.57057799653913</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.23691464055193</v>
+        <v>30.65070846408362</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.23691458645927</v>
+        <v>-5.022682437057249</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.23691463243248</v>
+        <v>13.48698838556881</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.23691464821356</v>
+        <v>22.11708379715652</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.23691460001652</v>
+        <v>4.525873317482702</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.23691464099183</v>
+        <v>23.56041804755528</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.2369146397822</v>
+        <v>20.67101131659844</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.23691463727037</v>
+        <v>15.36419046622167</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.23691465892283</v>
+        <v>25.27586407916973</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.23691466512259</v>
+        <v>31.46084428062455</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.23691460596101</v>
+        <v>-3.293381824325238</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.23691465494489</v>
+        <v>17.8980250076791</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.23691467106417</v>
+        <v>26.45092451438689</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.23691461573397</v>
+        <v>-4.172364368444264</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.2369146549899</v>
+        <v>19.01405702227026</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.23691466835008</v>
+        <v>28.74052012075389</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.23691461668424</v>
+        <v>-9.648171358485278</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.23691466113806</v>
+        <v>8.931166217422351</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.23691467626726</v>
+        <v>17.89221502792105</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.23691463073699</v>
+        <v>2.177434349319196</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.2369146703581</v>
+        <v>21.18403729336431</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.23691468384256</v>
+        <v>30.03009973775364</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.23691468038184</v>
+        <v>29.16951903007513</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.23691470143108</v>
+        <v>39.72668569041015</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.23691470723032</v>
+        <v>47.06071446490488</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.23691464832537</v>
+        <v>5.006279763703262</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.23691469659453</v>
+        <v>28.79467629358714</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.23691471229846</v>
+        <v>39.50675304382467</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.23691466999336</v>
+        <v>38.11100722969618</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.23691466701219</v>
+        <v>35.40146242086171</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.23691468913175</v>
+        <v>45.69432505425223</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.23691469534073</v>
+        <v>51.66544983516712</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.23691463379867</v>
+        <v>13.6745363783057</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.23691468497037</v>
+        <v>38.99876573602103</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.23691470096415</v>
+        <v>47.02266446676705</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.2369146414692</v>
+        <v>8.223251263149889</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.23691468252502</v>
+        <v>34.88002842386304</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.2369146958231</v>
+        <v>44.20216511379732</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.23691464482897</v>
+        <v>7.466227920095484</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.236914691321</v>
+        <v>29.72960544283224</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.23691470637988</v>
+        <v>38.24418444105074</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.23691465994349</v>
+        <v>21.18640749211533</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.23691470138123</v>
+        <v>43.41054596763811</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.23691471480302</v>
+        <v>51.82196253717596</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.23691471081369</v>
+        <v>53.90707573923618</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.2369147323266</v>
+        <v>64.73180286442394</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.23691473811613</v>
+        <v>71.84899138059671</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.23691467689621</v>
+        <v>26.58549385552838</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.23691472732256</v>
+        <v>54.43251072610204</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.23691474287115</v>
+        <v>64.62273644300699</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.23691467592423</v>
+        <v>39.47853338280176</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.23691467276553</v>
+        <v>36.82062607545515</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.23691469470103</v>
+        <v>47.06860596364763</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.2369147008641</v>
+        <v>53.28811680870754</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.23691463954363</v>
+        <v>14.56509627106488</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.23691469056585</v>
+        <v>40.77948160451283</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.23691470639547</v>
+        <v>49.0455853185364</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.23691464674178</v>
+        <v>8.746741670505561</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.23691468767688</v>
+        <v>36.01707223324195</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.23691470084965</v>
+        <v>45.59091973178829</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.23691465073944</v>
+        <v>9.341561350416578</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.23691469709477</v>
+        <v>32.29962553005033</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.23691471201175</v>
+        <v>41.09504905100126</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.23691466585281</v>
+        <v>23.19491892067596</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.23691470716871</v>
+        <v>46.01499679313018</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.23691472046402</v>
+        <v>54.66847739766142</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.23691471630172</v>
+        <v>56.85814700607326</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.23691473764069</v>
+        <v>67.61205156170166</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.23691474338112</v>
+        <v>74.96826448425489</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.23691468237407</v>
+        <v>28.95407191964218</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.23691473266602</v>
+        <v>57.67359406686219</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.23691474804462</v>
+        <v>68.1014109233429</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.23691465505731</v>
+        <v>31.69677407379417</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.23691465195606</v>
+        <v>25.72456813760039</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.23691467385283</v>
+        <v>35.81784913599637</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.23691468014999</v>
+        <v>42.88001195284617</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.23691461966366</v>
+        <v>5.314744674752589</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.23691466984076</v>
+        <v>29.5882101923786</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.23691468611127</v>
+        <v>39.0767326236234</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.23691462873405</v>
+        <v>4.023891035510115</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.23691466893713</v>
+        <v>29.56261269095416</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.23691468245273</v>
+        <v>40.24677445853429</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.2369146313481</v>
+        <v>2.636815876180822</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.23691467687448</v>
+        <v>23.74016736812762</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.23691469217968</v>
+        <v>33.74804346767844</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.23691464586503</v>
+        <v>14.92285147015417</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.2369146864421</v>
+        <v>36.14791322157926</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.23691470008343</v>
+        <v>45.9046172310675</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.23691469601256</v>
+        <v>44.56311018801139</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.23691471731059</v>
+        <v>55.26384614006584</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.23691472318734</v>
+        <v>63.48462289606525</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.23691466292995</v>
+        <v>18.33137047167062</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.23691471240921</v>
+        <v>45.20504402440484</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.23691472823813</v>
+        <v>56.87564832206208</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.236914538536</v>
+        <v>5.308478102782441</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.2369145724184</v>
+        <v>24.84080217077108</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.23691458343708</v>
+        <v>29.78804009179547</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.23691453868228</v>
+        <v>4.236463057035664</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.23691457705105</v>
+        <v>20.66136142026155</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.23691458952872</v>
+        <v>24.86887764759406</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.23691454755554</v>
+        <v>13.91283710290702</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.23691458175313</v>
+        <v>29.56610452566589</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.23691459287431</v>
+        <v>34.09328898289942</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.23691459211376</v>
+        <v>29.81697085362919</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.23691460935971</v>
+        <v>36.99690924781044</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.23691461439743</v>
+        <v>39.99169600814733</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.23691456565287</v>
+        <v>10.67904592850457</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.23691460701715</v>
+        <v>26.95879702457307</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.23691462013759</v>
+        <v>33.78558204679571</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.2369145906292</v>
+        <v>3.398831576965577</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.23691462841679</v>
+        <v>26.36023144079709</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.23691464097486</v>
+        <v>32.71631784108797</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.2369145900604</v>
+        <v>-1.954487346865069</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.23691463285144</v>
+        <v>16.73588293874946</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.23691464707233</v>
+        <v>22.46237281476105</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.23691460306869</v>
+        <v>8.975587044865682</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.23691464120779</v>
+        <v>28.08773687027347</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.23691455738351</v>
+        <v>11.01852348654893</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.23691459278602</v>
+        <v>33.40136804949588</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.23691460373273</v>
+        <v>37.88983430171875</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.23691455953444</v>
+        <v>13.25382864108162</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.2369145996246</v>
+        <v>32.72928277896406</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.23691461202077</v>
+        <v>36.41623193178883</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.23691456915619</v>
+        <v>24.17458303079755</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.23691460488804</v>
+        <v>42.45953017235824</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.23691461593658</v>
+        <v>46.51178332385132</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.23691461503178</v>
+        <v>44.87969971946251</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.23691463269791</v>
+        <v>52.49263684776439</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.23691463773672</v>
+        <v>55.24671802935107</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.23691458692467</v>
+        <v>22.84983644674596</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.23691463012922</v>
+        <v>42.48728567482328</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.2369146430961</v>
+        <v>48.75478433553506</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.23691461337976</v>
+        <v>11.34353435841365</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.23691465287099</v>
+        <v>37.49355060506081</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.23691466537424</v>
+        <v>43.50157929247322</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.23691461504122</v>
+        <v>9.833476391999676</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.23691465976149</v>
+        <v>31.90123806580739</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.2369146739203</v>
+        <v>37.23663172443771</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.23691462896523</v>
+        <v>22.37977402269045</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.23691466882382</v>
+        <v>44.446533698514</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.23691456214274</v>
+        <v>9.77799367088225</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.23691459742709</v>
+        <v>32.64888454492779</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.23691460826574</v>
+        <v>37.3197233950618</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.23691456485258</v>
+        <v>13.07495875416165</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.23691460480894</v>
+        <v>33.10474166212699</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.23691461708273</v>
+        <v>36.99044442722276</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.2369145744727</v>
+        <v>23.98305056940867</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.23691461008528</v>
+        <v>42.74228939592557</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.23691462102475</v>
+        <v>46.97023442097201</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.23691462002858</v>
+        <v>45.61655530317128</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.23691463755958</v>
+        <v>53.23616383450656</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.23691464255614</v>
+        <v>56.17089695390418</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.23691459189173</v>
+        <v>22.98898983909457</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.23691463497352</v>
+        <v>43.37301642376561</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.23691464779193</v>
+        <v>49.80106607745003</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.23691461819356</v>
+        <v>10.40546664712655</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.2369146575474</v>
+        <v>37.0766705627257</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.23691466993834</v>
+        <v>43.33819843013202</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.23691462045667</v>
+        <v>10.01430984703231</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.23691466502136</v>
+        <v>32.67622823470904</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.23691467905298</v>
+        <v>38.28838052125965</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.23691463435975</v>
+        <v>22.61452815371776</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.23691467407967</v>
+        <v>45.18644376790484</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.23691454762794</v>
+        <v>7.420288196982982</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.23691458228816</v>
+        <v>28.82680138309883</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.23691459341489</v>
+        <v>34.42685282514845</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.23691454921023</v>
+        <v>9.749046582244464</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.23691458845982</v>
+        <v>28.19763045048876</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.23691460105984</v>
+        <v>33.1115136237454</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.2369145583708</v>
+        <v>19.43757195792086</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.23691459335345</v>
+        <v>36.84980841742206</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.23691460458368</v>
+        <v>41.99745261617122</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.2369146035348</v>
+        <v>37.9007990783373</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.23691462100442</v>
+        <v>45.33132170634714</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.23691462610601</v>
+        <v>48.93121361727232</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.23691457618194</v>
+        <v>16.82503698106848</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.23691461855663</v>
+        <v>35.6508510336854</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.23691463175465</v>
+        <v>43.11600274704704</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.23691460150181</v>
+        <v>6.681225611425507</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.23691464014491</v>
+        <v>31.71335723500706</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.2369146528584</v>
+        <v>38.94839319695008</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.23691460246465</v>
+        <v>4.842162573759239</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.23691464622449</v>
+        <v>25.7578148658457</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.23691466062138</v>
+        <v>32.43351987292023</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.2369146158388</v>
+        <v>15.95057234300743</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.23691465484137</v>
+        <v>37.00959423660958</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.23691465388267</v>
+        <v>33.66361280342183</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.23691465079154</v>
+        <v>28.78960470516693</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.23691467096734</v>
+        <v>38.86005329129947</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.2369146765856</v>
+        <v>43.69877216970272</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.2369146205736</v>
+        <v>8.524871750826357</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.23691466719023</v>
+        <v>31.81096054031521</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.23691468198705</v>
+        <v>38.88682156489255</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.23691462751178</v>
+        <v>3.579806888344539</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.23691466483461</v>
+        <v>28.36109898218101</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.23691467706634</v>
+        <v>36.29026476878064</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.23691462887586</v>
+        <v>-0.1379182938482337</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.2369146711406</v>
+        <v>20.62802835609495</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.23691468499194</v>
+        <v>27.69789281167617</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.23691464270183</v>
+        <v>12.92217115705604</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.23691468037185</v>
+        <v>33.77663719146888</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.23691469271736</v>
+        <v>40.9516793967694</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.23691468888602</v>
+        <v>40.01231774294409</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.23691470849331</v>
+        <v>50.60546893560931</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.23691471376484</v>
+        <v>56.52165430862017</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.23691465806009</v>
+        <v>14.95337374056209</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.23691470394512</v>
+        <v>40.54534567054998</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.23691471838903</v>
+        <v>49.46654357413214</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.23691468144338</v>
+        <v>49.64671139332302</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.23691467789063</v>
+        <v>47.22347388166302</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.23691469850197</v>
+        <v>57.63984670977773</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.23691470412002</v>
+        <v>62.22714302946066</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.23691464589849</v>
+        <v>24.08162002006451</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.23691469457431</v>
+        <v>51.21893662161548</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.23691470922458</v>
+        <v>57.74414931963489</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.23691465086884</v>
+        <v>14.72511447264983</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.23691465447535</v>
+        <v>15.36068465937363</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.23691469865289</v>
+        <v>39.54139566664463</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.23691471241059</v>
+        <v>46.11562552094705</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.23691466921816</v>
+        <v>30.18050764452271</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.23691470859302</v>
+        <v>54.0125699478449</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.23691472085508</v>
+        <v>60.71842989400056</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.23691471652256</v>
+        <v>62.56103845383276</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.2369147365628</v>
+        <v>73.395025403533</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.23691474181701</v>
+        <v>79.05808792616885</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.23691468396644</v>
+        <v>34.55934824248764</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.23691473187832</v>
+        <v>63.93848816696632</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.23691474614741</v>
+        <v>72.30095594258057</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.23691468658587</v>
+        <v>50.63109503345044</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.23691468288591</v>
+        <v>48.29093318052263</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.23691470332393</v>
+        <v>58.66141391244206</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.23691470889817</v>
+        <v>63.46871636850216</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.23691465089831</v>
+        <v>24.66413730479717</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.23691469942185</v>
+        <v>52.5966489013596</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.23691471391569</v>
+        <v>59.33487151179979</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.23691465544964</v>
+        <v>14.97608009015613</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.23691469433767</v>
+        <v>43.50543336035557</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.23691470636749</v>
+        <v>51.20838545451205</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.23691465964136</v>
+        <v>16.85848966615183</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.23691470367856</v>
+        <v>41.65165199204607</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.23691471730125</v>
+        <v>48.47210717305096</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.23691467435567</v>
+        <v>31.77327131513519</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.23691471360545</v>
+        <v>56.12698111419881</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.23691472574718</v>
+        <v>63.0453225183621</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.23691472127249</v>
+        <v>65.029214354603</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.23691474114903</v>
+        <v>75.79353727653989</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.23691474635643</v>
+        <v>81.66746980161142</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.23691468872003</v>
+        <v>36.49715048238043</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.23691473649432</v>
+        <v>66.65807465911035</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.23691475060026</v>
+        <v>75.22596346297094</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.23691466767313</v>
+        <v>43.42140727267402</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.23691466406188</v>
+        <v>38.01526380766491</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.2369146844587</v>
+        <v>48.26411118504248</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.23691469015707</v>
+        <v>53.86494625084219</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.23691463292391</v>
+        <v>16.09750957399559</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.23691468064717</v>
+        <v>42.23180417831419</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.23691469556526</v>
+        <v>50.11789609379595</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.2369146391758</v>
+        <v>10.74108899170964</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.23691467737508</v>
+        <v>37.68340007561803</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.23691468973539</v>
+        <v>46.44052965441524</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.23691464208554</v>
+        <v>10.84790256730383</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.23691468534279</v>
+        <v>33.94244640343204</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.23691469933973</v>
+        <v>41.91624199373363</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.23691465629935</v>
+        <v>24.29045371675544</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.23691469485397</v>
+        <v>47.18278449351344</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.23691470732926</v>
+        <v>55.14587073173026</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.23691470296532</v>
+        <v>53.86894020979523</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.23691472279791</v>
+        <v>64.60408340047962</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.23691472813213</v>
+        <v>71.28895434799469</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.236914671185</v>
+        <v>26.87784638933353</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.23691471819244</v>
+        <v>55.32902848123537</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.23691473273062</v>
+        <v>65.07155398266971</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.23691453151014</v>
+        <v>6.661607938502804</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.23691456647006</v>
+        <v>26.94528305146796</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.23691457768224</v>
+        <v>31.74086076652909</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.23691453100415</v>
+        <v>4.850973246255194</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.23691457059311</v>
+        <v>21.8570994974365</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.2369145832899</v>
+        <v>25.88620162169243</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.23691454011347</v>
+        <v>15.05409198223523</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.2369145753986</v>
+        <v>31.34469297072074</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.23691458671508</v>
+        <v>35.69440713424065</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.23691458615298</v>
+        <v>31.19853154424462</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.23691460384598</v>
+        <v>38.67883667440956</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.23691460897226</v>
+        <v>41.7565865731563</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.23691455883599</v>
+        <v>10.90733662341467</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.23691460159841</v>
+        <v>28.16971318261358</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.23691461495663</v>
+        <v>34.86790710046542</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.23691458209008</v>
+        <v>4.986666747692404</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.23691462099696</v>
+        <v>28.63687993189187</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.23691463378417</v>
+        <v>34.95585396721174</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.23691458073794</v>
+        <v>-1.254827793000103</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.23691462479648</v>
+        <v>17.93578889188869</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.23691463927686</v>
+        <v>23.59698456181526</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.23691459399499</v>
+        <v>10.23232580086312</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.23691463326379</v>
+        <v>29.92094381295357</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.2369145506711</v>
+        <v>12.43580789223395</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.23691458720841</v>
+        <v>35.67932726480254</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.23691459833605</v>
+        <v>39.98601167494043</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.23691455221547</v>
+        <v>14.06547666224037</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.23691459359068</v>
+        <v>34.24028001582543</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.23691460619174</v>
+        <v>37.71401175085192</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.2369145620733</v>
+        <v>25.55671721265281</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.23691459895049</v>
+        <v>44.5803967533238</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.23691461018165</v>
+        <v>48.42442668377815</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.23691460944961</v>
+        <v>46.66367076249691</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.23691462757776</v>
+        <v>54.60230859376202</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.2369146327022</v>
+        <v>57.43099710443619</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.23691458044975</v>
+        <v>23.35307462464528</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.23691462512483</v>
+        <v>44.1211557234254</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.23691463831383</v>
+        <v>50.23863195633061</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.23691460520581</v>
+        <v>13.09042886034803</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.2369146458802</v>
+        <v>40.05431167317625</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.23691465860125</v>
+        <v>46.01075569682448</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.23691460613415</v>
+        <v>10.8237406035351</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.23691465219424</v>
+        <v>33.52514731116031</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.23691466659968</v>
+        <v>38.7778340409473</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.23691462031194</v>
+        <v>23.99239737749112</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.23691466136469</v>
+        <v>46.75196208662909</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.23691455558454</v>
+        <v>11.00454719229085</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.23691459199828</v>
+        <v>34.74489770206161</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.23691460301504</v>
+        <v>39.24669113374901</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.23691455770978</v>
+        <v>13.74815268079471</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.23691459894507</v>
+        <v>34.4888328950349</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.23691461142056</v>
+        <v>38.17539104256414</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.23691456756288</v>
+        <v>25.21773808205542</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.23691460431534</v>
+        <v>44.72396401938163</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.23691461543459</v>
+        <v>48.75627998283507</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.2369146146066</v>
+        <v>47.29231006641177</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.2369146325957</v>
+        <v>55.2366561027687</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.23691463767635</v>
+        <v>58.254492927351</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.23691458558309</v>
+        <v>23.37310278016936</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.23691463012877</v>
+        <v>44.90770194117815</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.23691464316505</v>
+        <v>51.19531351941927</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.23691461020555</v>
+        <v>11.9580623587237</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.23691465073716</v>
+        <v>39.454161248879</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.23691466334368</v>
+        <v>45.68294152678636</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.23691461175797</v>
+        <v>10.85640373796985</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.23691465765638</v>
+        <v>34.16564947473536</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.23691467193214</v>
+        <v>39.7158894083876</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.23691462591335</v>
+        <v>24.07151869420756</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.236914666822</v>
+        <v>47.34683370365564</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.2369145407777</v>
+        <v>8.626845908652886</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.23691457653596</v>
+        <v>30.83672165074849</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.2369145878565</v>
+        <v>36.32274108593025</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.23691454174201</v>
+        <v>10.3741758000232</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.23691458223502</v>
+        <v>29.46315357008483</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.23691459505451</v>
+        <v>34.23942197307966</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.2369145511407</v>
+        <v>20.56594073170456</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.2369145872316</v>
+        <v>38.66282847933906</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.23691459865744</v>
+        <v>43.66993543434299</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.23691459780172</v>
+        <v>39.36068025561325</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.23691461572203</v>
+        <v>47.10397712000085</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.23691462091063</v>
+        <v>50.81103500006444</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.2369145695798</v>
+        <v>17.0874692608338</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.23691461338057</v>
+        <v>36.98990910200235</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.23691462681413</v>
+        <v>44.35298937092872</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.23691459315651</v>
+        <v>8.07260989167402</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.23691463294058</v>
+        <v>33.84763737457617</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.23691464588626</v>
+        <v>41.10193913553609</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.23691459336789</v>
+        <v>5.484915193553803</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.23691463841977</v>
+        <v>26.96118177668352</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.23691465307959</v>
+        <v>33.63226481176264</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.2369146069975</v>
+        <v>17.12683132542385</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.23691464715165</v>
+        <v>38.8122381873481</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.23691464616996</v>
+        <v>35.41578275738772</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.23691464331606</v>
+        <v>30.32187402623223</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.23691466394767</v>
+        <v>40.64648915997503</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.23691466966725</v>
+        <v>45.69582232087618</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.23691461219142</v>
+        <v>8.832428821253634</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.23691466024821</v>
+        <v>33.05235728026872</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.23691467533843</v>
+        <v>40.26226318506756</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.2369146201928</v>
+        <v>4.697094754931577</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.23691465858617</v>
+        <v>30.2289606348414</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.2369146710704</v>
+        <v>38.19495916463939</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.23691462090229</v>
+        <v>0.1865777809727689</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.23691466437933</v>
+        <v>21.50924753587659</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.23691467851659</v>
+        <v>28.60120748291012</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.23691463503426</v>
+        <v>13.79938474001719</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.23691467378478</v>
+        <v>35.29860041688669</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.23691468638514</v>
+        <v>42.46191306276187</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.23691468287007</v>
+        <v>41.30117365569342</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.23691470290482</v>
+        <v>52.22477937606964</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.23691470828174</v>
+        <v>58.43302963626189</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.23691465112458</v>
+        <v>15.00728457055833</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.2369146983951</v>
+        <v>41.60519391321227</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.23691471315217</v>
+        <v>50.66986114042335</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.23691467420408</v>
+        <v>51.85527736066969</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.23691467086204</v>
+        <v>49.30569087290561</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.23691469194678</v>
+        <v>60.001486771843</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.23691469766263</v>
+        <v>64.79443264177819</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.2369146379135</v>
+        <v>24.80107313426872</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.23691468811122</v>
+        <v>53.04647396515791</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.23691470304039</v>
+        <v>59.69641092567934</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.23691464394201</v>
+        <v>16.05754435157384</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.23691468408558</v>
+        <v>44.92554154143626</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.23691469647498</v>
+        <v>52.41791738556801</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.23691464694537</v>
+        <v>16.04420460286915</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.23691469240435</v>
+        <v>40.91600979796189</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.23691470643423</v>
+        <v>47.48192176236852</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.23691466200339</v>
+        <v>31.48080433352626</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.23691470252038</v>
+        <v>56.07445023451621</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.23691471502504</v>
+        <v>62.7403555843026</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.23691471099052</v>
+        <v>64.47825517288956</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.23691473147508</v>
+        <v>75.66252168539238</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.23691473683081</v>
+        <v>81.6086349748761</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.23691467746411</v>
+        <v>35.10622346824475</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.23691472683956</v>
+        <v>65.65848873993475</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.23691474140595</v>
+        <v>74.14613740931459</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.23691467954579</v>
+        <v>52.7130314267328</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.23691467605038</v>
+        <v>50.25379634045972</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.23691469695824</v>
+        <v>60.90304700448852</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.23691470262879</v>
+        <v>65.9282594265524</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.23691464311078</v>
+        <v>25.25686138934315</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.2369146931499</v>
+        <v>54.32203188836346</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.23691470791898</v>
+        <v>61.19877987307606</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.23691464870251</v>
+        <v>16.15217525942463</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.23691468871756</v>
+        <v>45.56919104582303</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.23691470098468</v>
+        <v>53.29828585815081</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.23691465231168</v>
+        <v>17.43300621621117</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.23691469762512</v>
+        <v>42.93216395343546</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.23691471151655</v>
+        <v>49.76226866400592</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.23691466734028</v>
+        <v>32.9588117603266</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.23691470772757</v>
+        <v>58.08569999802113</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.23691472010881</v>
+        <v>64.97998075153332</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.2369147159268</v>
+        <v>66.87209526823716</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.23691473624455</v>
+        <v>77.98380086944141</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.2369147415518</v>
+        <v>84.15164364351243</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.23691468240799</v>
+        <v>36.96104008410651</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.23691473164053</v>
+        <v>68.31878486524496</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.23691474603905</v>
+        <v>77.0244569571895</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.23691466021777</v>
+        <v>45.19774619105958</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.23691465683599</v>
+        <v>39.53939464257355</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.23691467769355</v>
+        <v>50.05530766004942</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.23691468349225</v>
+        <v>55.90154711088449</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.23691462477228</v>
+        <v>16.36479835315944</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.23691467396546</v>
+        <v>43.53395401356232</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.23691468917825</v>
+        <v>51.59679853737968</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.23691463208004</v>
+        <v>11.78545891236703</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.23691467137228</v>
+        <v>39.53827260675641</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.236914683987</v>
+        <v>48.38239298566441</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.23691463436607</v>
+        <v>11.24482668162686</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.236914678861</v>
+        <v>34.96243374715603</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.23691469314604</v>
+        <v>43.01313154026496</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.2369146488957</v>
+        <v>25.22417892096715</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.23691468855344</v>
+        <v>48.81709616702249</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.23691470128552</v>
+        <v>56.81712640897473</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.23691469723422</v>
+        <v>55.3011088670133</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.23691471749972</v>
+        <v>66.37540523095676</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.23691472293834</v>
+        <v>73.3850165896838</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.23691466451346</v>
+        <v>27.03464400769167</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.23691471293755</v>
+        <v>56.59421128963887</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.23691472778841</v>
+        <v>66.5198979020891</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.23691452426367</v>
+        <v>-2.460804411595319</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.23691455924778</v>
+        <v>16.66099906161313</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.23691457061626</v>
+        <v>21.47318309651059</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.23691452363079</v>
+        <v>-4.872814422405813</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.23691456324715</v>
+        <v>10.90094846568205</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.23691457612094</v>
+        <v>14.91764681749311</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.23691453255139</v>
+        <v>4.645247565315444</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.23691456786093</v>
+        <v>19.76170363537376</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.23691457933517</v>
+        <v>24.15817039124919</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.2369145793894</v>
+        <v>20.3227729868189</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.2369145970846</v>
+        <v>27.2813212161075</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.23691460230954</v>
+        <v>30.33182873237858</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.23691455227335</v>
+        <v>1.422431243750921</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.23691459508769</v>
+        <v>17.61741841010572</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.23691460863248</v>
+        <v>24.35678790759238</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.23691457584577</v>
+        <v>-5.686172425713984</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.23691461488293</v>
+        <v>17.05007813606196</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.23691462786796</v>
+        <v>23.44677877342557</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.23691457437805</v>
+        <v>-12.61619881353347</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.23691461858413</v>
+        <v>5.577449154262268</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.23691463328851</v>
+        <v>11.31457328318652</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.23691458754683</v>
+        <v>-1.822820718285339</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.23691462694714</v>
+        <v>16.93725848711289</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.23691454337405</v>
+        <v>2.712686684592516</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.2369145799356</v>
+        <v>24.76153424660805</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.23691459122496</v>
+        <v>29.09834857879566</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.23691454481284</v>
+        <v>3.720540146119433</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.2369145862155</v>
+        <v>22.62309793653828</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.23691459899969</v>
+        <v>26.1002843871822</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.23691455448947</v>
+        <v>14.51512336014205</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.23691459139113</v>
+        <v>32.33141546291098</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.23691460278551</v>
+        <v>36.23636630520188</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.23691460270684</v>
+        <v>35.19720897395538</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.23691462083742</v>
+        <v>42.60441552847004</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.23691462606469</v>
+        <v>45.40929768499977</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.23691457390483</v>
+        <v>13.31415018236115</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.23691461863305</v>
+        <v>32.98289869566517</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.23691463201477</v>
+        <v>39.15712974152075</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.23691459903464</v>
+        <v>1.996382910809245</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.23691463984662</v>
+        <v>28.02534955527029</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.2369146527712</v>
+        <v>34.07626357341606</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.23691459987667</v>
+        <v>-0.9592510460332413</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.23691464609258</v>
+        <v>20.71856067166041</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.2369146607285</v>
+        <v>26.06709844736834</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.2369146139774</v>
+        <v>11.50747481819117</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.23691465516903</v>
+        <v>33.31659290737269</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.23691454835502</v>
+        <v>1.173238027475371</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.23691458479258</v>
+        <v>23.72090154626576</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.23691459597071</v>
+        <v>28.25897031956009</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.23691455037761</v>
+        <v>3.299558902822788</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.23691459163986</v>
+        <v>22.76938028490356</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.2369146042981</v>
+        <v>26.46601959439082</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.23691456005348</v>
+        <v>14.0736940454539</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.23691459683</v>
+        <v>32.37444645318467</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.23691460811212</v>
+        <v>36.47349044753955</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.23691460793366</v>
+        <v>35.73415209881693</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.23691462592585</v>
+        <v>43.15026906621138</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.23691463110956</v>
+        <v>46.14930761367538</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.23691457910455</v>
+        <v>13.23983027605861</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.23691462370378</v>
+        <v>33.6773691878879</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.23691463693233</v>
+        <v>40.03011710542792</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.23691460411427</v>
+        <v>0.8095020892897331</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.23691464478319</v>
+        <v>27.37388197980994</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.23691465759272</v>
+        <v>33.70527139476443</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.23691460558617</v>
+        <v>-0.969285862284412</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.23691465164008</v>
+        <v>21.31944704732464</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.23691466614572</v>
+        <v>26.97416581119113</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.23691461966796</v>
+        <v>11.54646590911454</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.23691466071521</v>
+        <v>33.87431719678029</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.23691453345181</v>
+        <v>-0.9745470390619815</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.2369145692354</v>
+        <v>20.06237506415659</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.23691458071559</v>
+        <v>25.57520329640907</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.23691453429548</v>
+        <v>0.1916448563615418</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.23691457481717</v>
+        <v>18.03531590951611</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.23691458781746</v>
+        <v>22.80899259931078</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.23691454350718</v>
+        <v>9.68225280026097</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.23691457962364</v>
+        <v>26.59318012206276</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.23691459121063</v>
+        <v>31.65714574533315</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.23691459097893</v>
+        <v>28.03047677267787</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.23691460890422</v>
+        <v>35.25255070351759</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.2369146141954</v>
+        <v>38.94011407534953</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.23691456295669</v>
+        <v>7.166144575469872</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.23691460681388</v>
+        <v>25.99137205833877</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.2369146204378</v>
+        <v>33.41115737358876</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.23691458690333</v>
+        <v>-2.919620594331526</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.23691462682292</v>
+        <v>21.9409114951972</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.23691463997054</v>
+        <v>29.28854681395948</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.23691458701339</v>
+        <v>-6.158582852072431</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.23691463221875</v>
+        <v>14.31945837038644</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.23691464710724</v>
+        <v>21.08226823498624</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.23691460055857</v>
+        <v>4.781308289837202</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.23691464084951</v>
+        <v>25.53634332634745</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.23691464005296</v>
+        <v>22.5392368527013</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.23691463767393</v>
+        <v>17.87025198193196</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.23691465834208</v>
+        <v>27.69981774583459</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.23691466415251</v>
+        <v>32.7482889365006</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.23691460661546</v>
+        <v>-2.485989272188302</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.23691465486728</v>
+        <v>20.95342293919013</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.23691467018337</v>
+        <v>28.19927013357726</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.23691461498969</v>
+        <v>-3.327650211292486</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.23691465355081</v>
+        <v>21.40712758627809</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.23691466617646</v>
+        <v>29.4078714622401</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.23691461563534</v>
+        <v>-8.495862210252035</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.23691465930235</v>
+        <v>11.96889340634032</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.23691467359977</v>
+        <v>19.09284152393778</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.23691462970868</v>
+        <v>4.641238378424372</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.23691466862852</v>
+        <v>25.32151013207007</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.23691468137162</v>
+        <v>32.55301450276713</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.23691467829979</v>
+        <v>31.77208255542384</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.23691469836591</v>
+        <v>42.17407052995466</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.23691470380976</v>
+        <v>48.37627211713891</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.23691464656013</v>
+        <v>6.418964444873655</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.23691469405881</v>
+        <v>32.29292136578015</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.23691470897477</v>
+        <v>41.38820316034386</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.23691466821384</v>
+        <v>38.5443299083591</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.23691466537459</v>
+        <v>36.46535056261449</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.23691468649733</v>
+        <v>46.66140113614183</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.23691469230699</v>
+        <v>51.45718712646773</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.23691463248161</v>
+        <v>13.11749344253792</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.23691468288494</v>
+        <v>40.56250881823993</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.23691469804616</v>
+        <v>47.2658826752104</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.23691463886128</v>
+        <v>7.776968147966738</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.23691467918081</v>
+        <v>35.83142024087749</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.23691469171509</v>
+        <v>43.37442916228012</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.23691464182948</v>
+        <v>7.115937457135566</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.23691468748773</v>
+        <v>31.10891897397185</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.23691470168167</v>
+        <v>37.72545586423337</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.23691465684178</v>
+        <v>22.07868558032406</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.23691469753638</v>
+        <v>45.83557765996646</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.23691471018726</v>
+        <v>52.58633391724202</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.23691470662184</v>
+        <v>54.7467669297892</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.23691472713853</v>
+        <v>65.40492439603577</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.2369147325635</v>
+        <v>71.34658376639238</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.23691467308935</v>
+        <v>26.3340500092653</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.2369147227037</v>
+        <v>56.14401462662809</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.23691473743259</v>
+        <v>64.68015861871666</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.23691467364389</v>
+        <v>39.37270360065182</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.23691467064782</v>
+        <v>37.38423497801734</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.23691469159456</v>
+        <v>47.53902467132327</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.23691469735899</v>
+        <v>52.57261911557544</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.23691463776047</v>
+        <v>13.53963400094932</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.23691468800601</v>
+        <v>41.80864889443592</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.23691470300638</v>
+        <v>48.74918964863927</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.23691464370279</v>
+        <v>7.835975934853487</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.23691468389395</v>
+        <v>36.44496546240055</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.23691469630528</v>
+        <v>44.23161898173116</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.23691464728244</v>
+        <v>8.483625695354805</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.23691469279531</v>
+        <v>33.1094980972759</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.23691470685003</v>
+        <v>39.99755838663206</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.23691466226882</v>
+        <v>23.53830488265251</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.23691470283385</v>
+        <v>47.83367524349224</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.23691471536064</v>
+        <v>54.8194199006074</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.23691471164417</v>
+        <v>57.13423031606582</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.23691473199496</v>
+        <v>67.72616519313556</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.23691473737151</v>
+        <v>73.89356625142662</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.2369146781156</v>
+        <v>28.17590516580298</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.23691472758841</v>
+        <v>58.79798395124684</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.23691474214856</v>
+        <v>67.56136377002993</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.23691465411943</v>
+        <v>32.04446103411178</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.23691465121624</v>
+        <v>26.81943021359879</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.23691467211461</v>
+        <v>36.8479494433268</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.23691467800771</v>
+        <v>42.70128959375251</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.23691461921284</v>
+        <v>4.782744633828759</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.23691466861156</v>
+        <v>31.17615776583161</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.23691468405426</v>
+        <v>39.29417675249225</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.23691462690897</v>
+        <v>3.55290945743825</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.23691466637669</v>
+        <v>30.51699342413973</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.23691467913453</v>
+        <v>39.40734421357206</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.23691462914698</v>
+        <v>2.397626692607012</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.23691467384064</v>
+        <v>25.26573610257793</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.23691468828773</v>
+        <v>33.35985316403931</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.23691464362306</v>
+        <v>15.89804183325549</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.23691468345793</v>
+        <v>38.67876007086029</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.23691469633444</v>
+        <v>46.75852676137019</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.23691469272906</v>
+        <v>45.62866769732823</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.23691471303028</v>
+        <v>56.1919096912987</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.23691471853826</v>
+        <v>63.19955366499467</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.23691466000505</v>
+        <v>18.29671012666108</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.23691470867041</v>
+        <v>47.14524970715697</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.23691472368155</v>
+        <v>57.11796510686928</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.23691452683757</v>
+        <v>4.071777519758431</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.23691456374793</v>
+        <v>24.58831535551414</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.23691457606963</v>
+        <v>31.00518312372067</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.2369145268273</v>
+        <v>1.780856277126091</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.23691456862496</v>
+        <v>18.71991239198211</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.23691458257819</v>
+        <v>24.42206389141318</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.23691453646572</v>
+        <v>11.95785951671615</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.23691457371942</v>
+        <v>28.15069121640038</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.23691458615575</v>
+        <v>34.07696871321656</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.23691458545057</v>
+        <v>28.98953326660747</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.2369146045205</v>
+        <v>36.80492898417021</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.23691461016988</v>
+        <v>40.76137289280453</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.23691455673765</v>
+        <v>8.98853624648604</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.2369146017968</v>
+        <v>25.90514801105149</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.23691461641552</v>
+        <v>34.16957236531054</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.23691458791424</v>
+        <v>2.971079026333147</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.23691462915784</v>
+        <v>27.49930534407133</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.23691464327196</v>
+        <v>35.95057255262876</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.23691458748477</v>
+        <v>-3.352374384365742</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.23691463418943</v>
+        <v>16.28406209675425</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.23691465017241</v>
+        <v>24.1727937560266</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.23691460165308</v>
+        <v>7.946741535796582</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.23691464328034</v>
+        <v>28.18607726187112</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.23691454834054</v>
+        <v>11.13233406700575</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.23691458692685</v>
+        <v>34.88010297713392</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.23691459918232</v>
+        <v>40.82621847944007</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.23691455055848</v>
+        <v>12.55366197870477</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.23691459425401</v>
+        <v>32.95083054254467</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.23691460813222</v>
+        <v>38.12068655124457</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.23691456108796</v>
+        <v>24.13799060920272</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.23691460003322</v>
+        <v>43.31559718191016</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.23691461240269</v>
+        <v>48.74881522315672</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.23691461155011</v>
+        <v>46.5587950310634</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.23691463108598</v>
+        <v>54.87215669752361</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.23691463673909</v>
+        <v>58.59873284022553</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.23691458099768</v>
+        <v>23.33025156976081</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.23691462808408</v>
+        <v>44.0219636099462</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.23691464254893</v>
+        <v>51.69872069438468</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.23691461382705</v>
+        <v>12.5769714284823</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.23691465694832</v>
+        <v>40.71462975645225</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.23691467101916</v>
+        <v>48.8161144069037</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.23691461587532</v>
+        <v>10.60966278829998</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.23691466470629</v>
+        <v>34.06852430463001</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.23691468064025</v>
+        <v>41.56637151603904</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.23691463112746</v>
+        <v>23.72288876121679</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.23691467464986</v>
+        <v>47.30896104142987</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.23691455380616</v>
+        <v>10.00320738148526</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.23691459227206</v>
+        <v>34.32093742461065</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.23691460440923</v>
+        <v>40.47435890395907</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.23691455664871</v>
+        <v>12.61758892871372</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.23691460020788</v>
+        <v>33.65955699114481</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.23691461395214</v>
+        <v>39.05539870962556</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.23691456719381</v>
+        <v>24.20552637830696</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.23691460601753</v>
+        <v>43.93681992867832</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.23691461826761</v>
+        <v>49.56905722328696</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.23691461730294</v>
+        <v>47.6536994441141</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.23691463669187</v>
+        <v>55.97905711309969</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.23691464229863</v>
+        <v>59.91460410663908</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.23691458670721</v>
+        <v>23.75536477843262</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.23691463366956</v>
+        <v>45.30146516194084</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.23691464797269</v>
+        <v>53.16404413425904</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.23691461932238</v>
+        <v>11.77738864939311</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.23691466230179</v>
+        <v>40.52078557912748</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.23691467624859</v>
+        <v>48.90503877607335</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.23691462203822</v>
+        <v>11.07325560768371</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.23691467070853</v>
+        <v>35.21980757058921</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.23691468650204</v>
+        <v>43.02667835966939</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.23691463728658</v>
+        <v>24.26553156283708</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.2369146806658</v>
+        <v>48.43857949256876</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.23691453728271</v>
+        <v>6.96591426850679</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.23691457506087</v>
+        <v>29.60804140852913</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.23691458751205</v>
+        <v>36.78362433049928</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.23691453886996</v>
+        <v>8.451393759209612</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.23691458165034</v>
+        <v>27.67906582245624</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.23691459575019</v>
+        <v>34.2041565767893</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.23691454886247</v>
+        <v>18.68425030350544</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.23691458699206</v>
+        <v>36.8726438155151</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.23691459955907</v>
+        <v>43.51877371115865</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.2369145985069</v>
+        <v>38.54186911457646</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.23691461783261</v>
+        <v>46.63807336894305</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.23691462355896</v>
+        <v>51.30685166996934</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.23691456880188</v>
+        <v>16.39131898887895</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.23691461498728</v>
+        <v>36.16920847454745</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.23691462970469</v>
+        <v>45.18354255392126</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.23691460037266</v>
+        <v>7.223940150791952</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.23691464257033</v>
+        <v>34.1033475455084</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.23691465686713</v>
+        <v>43.56585928580316</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.23691460164746</v>
+        <v>4.835337604945348</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.23691464943252</v>
+        <v>26.99070377674771</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.23691466562236</v>
+        <v>35.97454195771589</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.23691461625968</v>
+        <v>16.37582567037524</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.23691465884988</v>
+        <v>38.82665511639344</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.23691465752576</v>
+        <v>35.72791364440312</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.23691465402601</v>
+        <v>29.71113622583525</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.23691467640615</v>
+        <v>40.89202196791497</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.23691468274593</v>
+        <v>47.10548288096709</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.23691462114344</v>
+        <v>8.129824430774789</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.23691467205262</v>
+        <v>33.21767145506222</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.23691468860804</v>
+        <v>42.17512627958499</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.23691462918298</v>
+        <v>2.983504238862746</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.2369146699635</v>
+        <v>29.5691333426837</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.23691468366076</v>
+        <v>39.74253986439535</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.23691463083702</v>
+        <v>-1.567322645039493</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.23691467701729</v>
+        <v>20.4374245965521</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.23691469252822</v>
+        <v>29.79370928747677</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.23691464588106</v>
+        <v>12.15469072900536</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.23691468704093</v>
+        <v>34.35644332518628</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.23691470086562</v>
+        <v>43.64213840934895</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.23691469640725</v>
+        <v>42.34356456771097</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.23691471815076</v>
+        <v>54.11867280555381</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.23691472407861</v>
+        <v>61.50279775682461</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.23691466282638</v>
+        <v>15.20663139036652</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.2369147129627</v>
+        <v>42.83426002720486</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.23691472907284</v>
+        <v>53.98091742604911</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.23691468885159</v>
+        <v>54.46520614664278</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.23691468484302</v>
+        <v>51.11653852236708</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.23691470770584</v>
+        <v>62.70209222063109</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.23691471404975</v>
+        <v>68.66751135717101</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.23691464998769</v>
+        <v>26.33051469709356</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.23691470316565</v>
+        <v>55.74086958555945</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.23691471957959</v>
+        <v>64.12060077109368</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.23691465579883</v>
+        <v>16.30494450444691</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.23691469844379</v>
+        <v>46.51712873350204</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.23691471206683</v>
+        <v>56.24523759851167</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.23691465994214</v>
+        <v>16.6821116212686</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.23691470823373</v>
+        <v>42.54138705491192</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.2369147236606</v>
+        <v>51.40563186844827</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.23691467606703</v>
+        <v>32.39064769358961</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.2369147191087</v>
+        <v>57.95636883671887</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.23691473285847</v>
+        <v>66.76734804411313</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.23691472783108</v>
+        <v>68.49383114311817</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.23691475005339</v>
+        <v>80.55730648007598</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.23691475596639</v>
+        <v>87.69186427132135</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.23691469232597</v>
+        <v>38.0649957589541</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.23691474469749</v>
+        <v>69.93985400632067</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.23691476063534</v>
+        <v>80.51506711744746</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.23691469474234</v>
+        <v>55.86685119501836</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.23691469056117</v>
+        <v>52.58001473252331</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.23691471323366</v>
+        <v>64.1166684572338</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.23691471952933</v>
+        <v>70.33333981822031</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.23691465570256</v>
+        <v>27.25396616759708</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.2369147087234</v>
+        <v>57.56958991090879</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.23691472496598</v>
+        <v>66.19011660684525</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.23691466103548</v>
+        <v>16.85694110539643</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.23691470355304</v>
+        <v>47.68960281839331</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.23691471704535</v>
+        <v>57.66773972923766</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.23691466582952</v>
+        <v>18.64032835861478</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.23691471397683</v>
+        <v>45.20439339589122</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.23691472925567</v>
+        <v>54.34780649836527</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.23691468194132</v>
+        <v>34.47535604469836</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.23691472485439</v>
+        <v>60.64362100510827</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.23691473847222</v>
+        <v>69.69504642975778</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.23691473327701</v>
+        <v>71.53931767334039</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.23691475531939</v>
+        <v>83.52814615639579</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.23691476118094</v>
+        <v>90.9039771261494</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.23691469776717</v>
+        <v>40.51575879667074</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.23691474999716</v>
+        <v>73.27855758090089</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.23691476575743</v>
+        <v>84.08913233637024</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.23691467327967</v>
+        <v>47.32892384452767</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.23691466917174</v>
+        <v>40.63699030511857</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.23691469180325</v>
+        <v>52.01508725874307</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.23691469823959</v>
+        <v>59.11824672995084</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.23691463527044</v>
+        <v>17.22054350490622</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.23691468741293</v>
+        <v>45.51292379350059</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.23691470411666</v>
+        <v>55.4128997670884</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.23691464253188</v>
+        <v>11.58509997987437</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.23691468428965</v>
+        <v>40.61277342276065</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.23691469814053</v>
+        <v>51.75054580127487</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.23691464590754</v>
+        <v>11.30187678507822</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.23691469319446</v>
+        <v>35.93064168795198</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.23691470887934</v>
+        <v>46.34141531358101</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.23691466141754</v>
+        <v>25.49890811134536</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.23691470356376</v>
+        <v>50.00408312808665</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.23691471754349</v>
+        <v>60.2066348864693</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.23691471245712</v>
+        <v>58.43220678019521</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.23691473445584</v>
+        <v>70.36636523715848</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.23691474045982</v>
+        <v>78.64814547824255</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.23691467781698</v>
+        <v>29.13857594406002</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.23691472920269</v>
+        <v>59.97257666141198</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.23691474543256</v>
+        <v>72.0834458637633</v>
       </c>
     </row>
   </sheetData>
